--- a/biology/Zoologie/Galenomys_garleppi/Galenomys_garleppi.xlsx
+++ b/biology/Zoologie/Galenomys_garleppi/Galenomys_garleppi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galenomys garleppi est une espèce de rongeurs de la famille des cricétidés, la seule espèce du genre Galenomys.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans le sud du Pérou et la partie adjacente de la Bolivie. Il pourrait être présent dans le nord du Chili, bien qu'il n'ai pas été observé. On le trouve généralement à plus de 3 000 m d'altitude. Il vit uniquement dans les zones ouvertes et sablonneuses avec quelques touffes d'herbes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans le sud du Pérou et la partie adjacente de la Bolivie. Il pourrait être présent dans le nord du Chili, bien qu'il n'ai pas été observé. On le trouve généralement à plus de 3 000 m d'altitude. Il vit uniquement dans les zones ouvertes et sablonneuses avec quelques touffes d'herbes.
 </t>
         </is>
       </c>
